--- a/StructureDefinition-date-tested-for-hiv.xlsx
+++ b/StructureDefinition-date-tested-for-hiv.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-date-tested-for-hiv.xlsx
+++ b/StructureDefinition-date-tested-for-hiv.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
